--- a/data/relevant_kaggle_data.xlsx
+++ b/data/relevant_kaggle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A02AE-C1B6-AC4E-A65F-704A965949AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F7DF9-9E6F-B64C-9D1F-97D384AB8BE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{BB7E7DAB-4849-C443-B59D-33953F82165A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5350" uniqueCount="4697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="4699">
   <si>
     <t>Suspected serial arsonist arrested in Calif. http://t.co/PzotPDGAkI</t>
   </si>
@@ -14119,6 +14119,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>A??</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -14477,13 +14483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391349C6-C0B5-0840-9E02-FD37DCB5A384}">
   <dimension ref="A1:B4900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B502" sqref="B502"/>
+    <sheetView tabSelected="1" topLeftCell="A842" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B776" sqref="B776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="136.5" customWidth="1"/>
+    <col min="1" max="1" width="142.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -18354,1413 +18360,2193 @@
       <c r="A502" t="s">
         <v>3015</v>
       </c>
+      <c r="B502" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>3419</v>
       </c>
+      <c r="B503" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1139</v>
       </c>
+      <c r="B504" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2215</v>
       </c>
+      <c r="B505" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2900</v>
       </c>
+      <c r="B506" t="s">
+        <v>4696</v>
+      </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2346</v>
       </c>
+      <c r="B507" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>3529</v>
       </c>
+      <c r="B508" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1845</v>
       </c>
+      <c r="B509" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>482</v>
       </c>
+      <c r="B510" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>4037</v>
       </c>
+      <c r="B511" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>4203</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B512" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>4204</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B513" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2331</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B514" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B515" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B516" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B517" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B518" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B519" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B520" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2996</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B521" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B522" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B523" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>4138</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B524" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B525" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B526" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B527" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B528" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B529" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B530" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>4200</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B531" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B532" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>3162</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B533" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>4137</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B534" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B535" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B536" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B537" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B538" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B539" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2777</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B540" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2272</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B541" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B542" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2359</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B543" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B544" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>4358</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B545" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>4465</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B546" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B547" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>4069</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B548" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B549" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B550" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>4457</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B551" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>4019</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B552" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B553" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B554" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B555" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>3871</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B556" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2804</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B557" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B558" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B559" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B560" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B561" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B562" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2768</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B563" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2330</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B564" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B565" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>4409</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B566" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2211</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B567" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>4291</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B568" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B569" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B570" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B571" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B572" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>3532</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B573" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>4167</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B574" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B575" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>4045</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B576" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B577" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B578" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B579" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B580" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B581" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B582" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>3014</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B583" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>4196</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B584" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B585" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B586" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>2814</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B587" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>3638</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B588" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B589" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>3855</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B590" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>3418</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B591" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>2522</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B592" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B593" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B594" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B595" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B596" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B597" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>3671</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B598" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B599" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>4182</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B600" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>4194</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B601" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>3665</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B602" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B603" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B604" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>4020</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B605" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B606" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B607" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>4475</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B608" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>2719</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B609" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>4545</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B610" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>2766</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B611" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>3860</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B612" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>2772</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B613" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>2489</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B614" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>4122</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B615" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>4035</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B616" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B617" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B618" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B619" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>3421</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B620" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>3907</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B621" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B622" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B623" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>3958</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B624" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B625" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B626" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B627" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>4295</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B628" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>3887</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B629" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>4110</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B630" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>2752</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B631" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>2748</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B632" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>3843</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B633" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>4121</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B634" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B635" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B636" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B637" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>3263</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B638" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B639" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B640" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B641" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>3110</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B642" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>4462</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B643" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>3946</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B644" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>4223</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B645" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B646" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B647" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B648" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B649" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>3836</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B650" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>3621</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B651" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B652" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B653" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B654" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B655" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B656" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B657" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B658" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B659" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>3560</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B660" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B661" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>3706</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B662" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B663" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B664" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>2191</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B665" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B666" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B667" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>4029</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B668" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B669" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B670" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>2749</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B671" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B672" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B673" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>4215</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B674" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B675" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B676" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B677" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B678" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B679" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B680" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B681" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>3945</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B683" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B684" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>3906</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B685" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B686" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B687" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B688" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B689" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B690" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B691" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B692" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B693" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B694" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>4140</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B695" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>3618</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B696" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B697" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>3629</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B698" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>4195</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B699" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>2790</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B700" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B701" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B702" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B703" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>2758</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B704" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B705" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B706" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B707" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>2881</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>3889</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B709" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B710" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B711" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>2487</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B712" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B713" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>4026</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B714" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>4325</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B715" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B716" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>4370</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B717" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B718" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>2386</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B719" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>2839</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B720" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>2636</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>2277</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B722" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B723" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B724" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B725" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B726" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B727" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>3637</v>
       </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B728" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B729" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>4582</v>
       </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B730" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>4570</v>
       </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B731" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B732" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B733" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B734" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B735" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>4663</v>
       </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B736" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B737" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>2771</v>
       </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B738" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>2709</v>
       </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B739" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>2710</v>
       </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B740" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>3347</v>
       </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B741" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>2574</v>
       </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B742" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>3808</v>
       </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B743" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B744" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B745" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>2929</v>
       </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B746" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>4533</v>
       </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B747" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>3759</v>
       </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B748" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>3757</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>3531</v>
       </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B750" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B751" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>3845</v>
       </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B752" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>3859</v>
       </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B753" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B754" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B755" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>3825</v>
       </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B758" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>3812</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>3832</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>3271</v>
       </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B761" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B764" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>2829</v>
       </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B765" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>4680</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B768" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B769" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B770" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>3468</v>
       </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B771" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>3476</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>3464</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B774" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B775" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>4282</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>4283</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>2353</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>2688</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>4312</v>
       </c>

--- a/data/relevant_kaggle_data.xlsx
+++ b/data/relevant_kaggle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78F7DF9-9E6F-B64C-9D1F-97D384AB8BE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE5A4F-6BDC-E646-9B64-5ADC3925B48C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{BB7E7DAB-4849-C443-B59D-33953F82165A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="4699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="4700">
   <si>
     <t>Suspected serial arsonist arrested in Calif. http://t.co/PzotPDGAkI</t>
   </si>
@@ -14125,6 +14125,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>A?</t>
   </si>
 </sst>
 </file>
@@ -14483,8 +14486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391349C6-C0B5-0840-9E02-FD37DCB5A384}">
   <dimension ref="A1:B4900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A842" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B776" sqref="B776"/>
+    <sheetView tabSelected="1" topLeftCell="A2281" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B1035" sqref="B1035"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20510,1323 +20513,1869 @@
       <c r="A776" t="s">
         <v>217</v>
       </c>
+      <c r="B776" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>4282</v>
       </c>
+      <c r="B777" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>4283</v>
       </c>
+      <c r="B778" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>1005</v>
       </c>
+      <c r="B779" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>570</v>
       </c>
+      <c r="B780" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>2353</v>
       </c>
+      <c r="B781" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>2688</v>
       </c>
+      <c r="B782" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>2422</v>
       </c>
+      <c r="B783" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>4312</v>
       </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B784" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B785" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B786" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B787" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B788" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B789" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>2819</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>2819</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>2819</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>2819</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B794" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B795" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B796" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B797" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>4619</v>
       </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B798" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>3898</v>
       </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B799" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>4414</v>
       </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B800" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>3962</v>
       </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B801" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>3962</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>3732</v>
       </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B807" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B808" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B809" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>3744</v>
       </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B811" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>3433</v>
       </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B819" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>3442</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>3440</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B822" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B823" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B824" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>3903</v>
       </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B825" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B826" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B828" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B829" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B830" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>3041</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>4248</v>
       </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B833" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>3135</v>
       </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B834" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B835" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B836" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B837" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>2518</v>
       </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B838" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>4240</v>
       </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B839" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>3166</v>
       </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B840" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B841" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>2647</v>
       </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B842" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>4146</v>
       </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B843" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>4337</v>
       </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B844" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>4529</v>
       </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B845" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B846" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>3266</v>
       </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B847" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>2705</v>
       </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B848" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>4493</v>
       </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B849" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B850" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>4694</v>
       </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B851" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B852" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B853" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B854" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>3963</v>
       </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B855" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>3963</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>3963</v>
       </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B860" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B861" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B862" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B863" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>3925</v>
       </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B864" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B865" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B866" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B867" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>3816</v>
       </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B868" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>4377</v>
       </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B869" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>2779</v>
       </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B870" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B871" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B872" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>4563</v>
       </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B873" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B874" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B875" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B876" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B877" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B878" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B879" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B880" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B881" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>4353</v>
       </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B882" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B883" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>4669</v>
       </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B884" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B885" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B886" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B887" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B888" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B889" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B891" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B893" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B894" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B895" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B896" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B897" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B898" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B899" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>3465</v>
       </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B901" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B902" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>4454</v>
       </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B903" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B904" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>3547</v>
       </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B905" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B906" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>3539</v>
       </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B907" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B908" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B909" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B910" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>2203</v>
       </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B911" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>3233</v>
       </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B912" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>2262</v>
       </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B913" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>3966</v>
       </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B914" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B920" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>3657</v>
       </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B921" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>3775</v>
       </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B922" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>3756</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>3774</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>2792</v>
       </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B925" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>4441</v>
       </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B926" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B927" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>2232</v>
       </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B928" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B929" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B930" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B931" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>2528</v>
       </c>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B932" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>2568</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>2554</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>2540</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>2570</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>2546</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>2537</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>2527</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>2536</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>2491</v>
       </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B941" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>2476</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>2479</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>2484</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>2496</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>2492</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>3206</v>
       </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B947" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B948" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B949" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>4520</v>
       </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B950" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>4499</v>
       </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B951" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B952" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B953" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B954" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>2559</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>2563</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>4537</v>
       </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B957" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B958" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B959" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>3875</v>
       </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B960" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>3967</v>
       </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B961" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>3967</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>3844</v>
       </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B967" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>3787</v>
       </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B968" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>3964</v>
       </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B969" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>3964</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>3377</v>
       </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B975" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B976" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>2318</v>
       </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B977" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>2968</v>
       </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B978" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B979" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B980" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B981" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B982" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B983" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B985" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B986" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B987" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B988" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>3661</v>
       </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B989" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>3670</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B991" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B992" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B993" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>4006</v>
       </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B994" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>4003</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>3999</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>3996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>3980</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>3970</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1000" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>3578</v>
       </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1001" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1002" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1003" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1004" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>4247</v>
       </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1005" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1006" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1007" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1008" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1009" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>3624</v>
       </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1010" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1011" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1012" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>4143</v>
       </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1013" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>3422</v>
       </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1014" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>3599</v>
       </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1015" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1016" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1017" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1018" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1023" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>3695</v>
       </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1024" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>2206</v>
       </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1025" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1026" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1027" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1028" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>3961</v>
       </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1029" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>3275</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>834</v>
       </c>

--- a/data/relevant_kaggle_data.xlsx
+++ b/data/relevant_kaggle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CE5A4F-6BDC-E646-9B64-5ADC3925B48C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEE2B0-8405-BC4C-AD9F-F574C9C04B7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{BB7E7DAB-4849-C443-B59D-33953F82165A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="4700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6294" uniqueCount="4700">
   <si>
     <t>Suspected serial arsonist arrested in Calif. http://t.co/PzotPDGAkI</t>
   </si>
@@ -14486,8 +14486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391349C6-C0B5-0840-9E02-FD37DCB5A384}">
   <dimension ref="A1:B4900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2281" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1035" sqref="B1035"/>
+    <sheetView tabSelected="1" topLeftCell="A1616" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B1640" sqref="B1640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22354,16 +22354,25 @@
       <c r="A1035" t="s">
         <v>3275</v>
       </c>
+      <c r="B1035" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>1932</v>
       </c>
+      <c r="B1036" t="s">
+        <v>4696</v>
+      </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>1822</v>
       </c>
+      <c r="B1037" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
@@ -22374,3048 +22383,4545 @@
       <c r="A1039" t="s">
         <v>831</v>
       </c>
+      <c r="B1039" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>3356</v>
       </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1041" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>3126</v>
       </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1042" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1043" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1044" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1045" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>3401</v>
       </c>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1046" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1047" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>4181</v>
       </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1049" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1050" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>3527</v>
       </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1051" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>3786</v>
       </c>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1052" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1053" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1054" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1055" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1056" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1057" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1058" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1059" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>2958</v>
       </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1060" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>3554</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>3934</v>
       </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1062" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1063" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1064" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1065" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1066" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>4120</v>
       </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1067" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>3974</v>
       </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1068" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1069" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1070" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1071" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1072" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1073" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>3969</v>
       </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1074" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>3969</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1080" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>2502</v>
       </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1081" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>3192</v>
       </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1082" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>2970</v>
       </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1083" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1084" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1085" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>3312</v>
       </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1086" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>2205</v>
       </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1087" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>2253</v>
       </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1088" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>3346</v>
       </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1089" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>3383</v>
       </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1090" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1091" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1092" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1093" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1094" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>3575</v>
       </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1095" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1096" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>3790</v>
       </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1097" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>4634</v>
       </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1098" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>4641</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>4623</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>4647</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1102" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1103" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1104" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1105" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1106" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1108" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>3546</v>
       </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1109" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>3551</v>
       </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1110" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>3548</v>
       </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1111" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>3559</v>
       </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1112" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>4672</v>
       </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1113" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>4371</v>
       </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1114" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1116" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1117" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1118" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>4310</v>
       </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1119" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>4310</v>
       </c>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1121" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1122" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1123" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1124" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1125" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1126" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>3968</v>
       </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1127" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>3968</v>
       </c>
     </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>2793</v>
       </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1133" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1134" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1135" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1136" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>4099</v>
       </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1137" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>4057</v>
       </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1138" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>3473</v>
       </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1139" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>4107</v>
       </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1140" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>4123</v>
       </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1141" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1142" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1143" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>4271</v>
       </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1144" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1145" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>3965</v>
       </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1146" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>3965</v>
       </c>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1151" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1152" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1153" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1154" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>4034</v>
       </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1156" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1157" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1158" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1159" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1160" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1161" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1162" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1163" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>4357</v>
       </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1164" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>4363</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>4102</v>
       </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1166" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>4068</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>4063</v>
       </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1168" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1169" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1170" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1171" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1172" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>2780</v>
       </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1173" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1174" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>4498</v>
       </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1175" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1176" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1177" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1178" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1179" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>2196</v>
       </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1180" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>3167</v>
       </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1181" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>3378</v>
       </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1182" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1183" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>3392</v>
       </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1184" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>3392</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
         <v>4272</v>
       </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1186" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1187" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
         <v>4688</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
         <v>2181</v>
       </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1189" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
         <v>4378</v>
       </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1190" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
         <v>3897</v>
       </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1191" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1192" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
         <v>2309</v>
       </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1193" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1194" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
         <v>3838</v>
       </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1195" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
         <v>2292</v>
       </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1196" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
         <v>3176</v>
       </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1197" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1198" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1199" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
         <v>4397</v>
       </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1200" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1201" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
         <v>3216</v>
       </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1202" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1203" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1204" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1205" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
         <v>3879</v>
       </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1206" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1207" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
         <v>2825</v>
       </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1208" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
         <v>4682</v>
       </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1209" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1210" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1211" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
         <v>4355</v>
       </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1212" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1213" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1214" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
         <v>4354</v>
       </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1215" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
         <v>3707</v>
       </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1216" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1217" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
         <v>3352</v>
       </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1218" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
         <v>3353</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1220" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
         <v>3564</v>
       </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1221" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
         <v>3094</v>
       </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1222" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
         <v>3762</v>
       </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1223" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1224" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1237" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
         <v>2694</v>
       </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1238" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1239" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1240" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1241" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
         <v>2105</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
         <v>3311</v>
       </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1243" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
         <v>3851</v>
       </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1244" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1245" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1247" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
         <v>3571</v>
       </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1248" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
         <v>3574</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
         <v>3580</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1251" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1253" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
         <v>3778</v>
       </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1254" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
         <v>3764</v>
       </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1255" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
         <v>3763</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
         <v>3773</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
         <v>3766</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1259" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
         <v>3830</v>
       </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1260" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
         <v>3799</v>
       </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1261" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1262" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
         <v>3355</v>
       </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1263" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1264" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1265" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>4179</v>
       </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1266" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1267" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1268" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1269" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>2526</v>
       </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1270" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1271" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>4199</v>
       </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1274" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1275" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>4593</v>
       </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1276" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1277" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1278" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1279" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
         <v>4342</v>
       </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1280" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1281" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1283" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1284" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1285" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1286" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1287" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1289" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1290" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1291" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
         <v>2963</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1293" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
         <v>2972</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
         <v>2961</v>
       </c>
     </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
         <v>2826</v>
       </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1297" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
         <v>2830</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1299" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1300" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1301" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
         <v>4665</v>
       </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1302" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1303" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1304" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1305" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>2629</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>2608</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
         <v>3609</v>
       </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1308" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
         <v>3349</v>
       </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1309" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
         <v>3171</v>
       </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1310" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1311" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1312" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>4278</v>
       </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1313" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1314" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1315" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
         <v>2199</v>
       </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1316" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1317" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1319" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1320" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1321" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
         <v>2985</v>
       </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1323" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
         <v>2322</v>
       </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1324" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1326" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1327" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1328" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1329" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1330" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1331" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1332" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1333" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1334" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1347" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1348" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1349" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1350" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
         <v>4385</v>
       </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1351" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1352" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1353" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1355" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
         <v>4104</v>
       </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1357" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1358" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
         <v>2226</v>
       </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1359" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1360" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
         <v>2347</v>
       </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1361" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1362" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
         <v>4192</v>
       </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1363" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1364" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1365" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
         <v>3122</v>
       </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1366" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
         <v>4100</v>
       </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1367" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
         <v>3876</v>
       </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1368" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1369" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
         <v>4233</v>
       </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1370" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1371" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1372" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1373" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
         <v>3957</v>
       </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1374" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
         <v>4336</v>
       </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1375" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
         <v>3892</v>
       </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1376" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1377" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
         <v>4306</v>
       </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1378" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1379" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1381" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
         <v>4074</v>
       </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1382" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1383" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
         <v>4544</v>
       </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1384" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
         <v>4678</v>
       </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1385" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
         <v>3986</v>
       </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1386" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
         <v>4269</v>
       </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1387" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
         <v>4277</v>
       </c>
     </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
         <v>2228</v>
       </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1389" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1391" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1392" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
         <v>2210</v>
       </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1393" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
         <v>4290</v>
       </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1394" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
         <v>4294</v>
       </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1395" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
         <v>4289</v>
       </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1396" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1397" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1398" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1399" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1400" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1401" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
         <v>4424</v>
       </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1402" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1403" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
         <v>3489</v>
       </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1404" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
         <v>3170</v>
       </c>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1405" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1406" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1407" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
         <v>3588</v>
       </c>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1408" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
         <v>3567</v>
       </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1409" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
         <v>3591</v>
       </c>
     </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
         <v>4686</v>
       </c>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1411" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
         <v>3659</v>
       </c>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1412" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
         <v>4097</v>
       </c>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1413" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
         <v>3536</v>
       </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1414" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
         <v>3536</v>
       </c>
     </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
         <v>3800</v>
       </c>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1416" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
         <v>4308</v>
       </c>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1417" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1418" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1419" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
         <v>4324</v>
       </c>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1420" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
         <v>4348</v>
       </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1421" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1422" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1423" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
         <v>4349</v>
       </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1424" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1425" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
         <v>2856</v>
       </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1426" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1427" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1428" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1429" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1430" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
         <v>3948</v>
       </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1431" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
         <v>2483</v>
       </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1432" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
         <v>2494</v>
       </c>
     </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
         <v>2465</v>
       </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1434" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
         <v>3699</v>
       </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1435" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1436" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1437" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1438" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
         <v>3914</v>
       </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1439" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
         <v>3570</v>
       </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1440" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1441" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
         <v>3655</v>
       </c>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1442" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1443" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1444" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
         <v>3726</v>
       </c>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1445" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1446" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1447" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1448" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1449" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
         <v>4559</v>
       </c>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1452" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1453" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1454" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1455" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
         <v>4054</v>
       </c>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1456" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
         <v>3287</v>
       </c>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1457" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
         <v>4581</v>
       </c>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1458" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1459" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1460" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
         <v>4386</v>
       </c>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1462" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
         <v>4393</v>
       </c>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1463" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1464" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
         <v>4590</v>
       </c>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1465" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
         <v>2648</v>
       </c>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1466" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1467" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1468" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1469" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1470" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1471" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1472" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
         <v>3839</v>
       </c>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1473" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
         <v>3602</v>
       </c>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1474" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1475" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
         <v>4314</v>
       </c>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1476" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1477" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1478" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1478" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
         <v>4403</v>
       </c>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1479" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1480" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
         <v>3397</v>
       </c>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1481" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1482" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1483" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1484" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1485" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1486" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1487" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
         <v>3215</v>
       </c>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1488" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
         <v>3218</v>
       </c>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1489" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
         <v>3212</v>
       </c>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1490" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
         <v>3204</v>
       </c>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1491" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
         <v>3220</v>
       </c>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1492" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1493" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1494" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1495" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1496" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
         <v>2263</v>
       </c>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1497" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
         <v>3161</v>
       </c>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1498" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1499" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
         <v>3863</v>
       </c>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1501" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1502" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1503" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
         <v>4660</v>
       </c>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1504" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1505" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1506" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1507" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
         <v>3460</v>
       </c>
-    </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1508" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
         <v>2781</v>
       </c>
-    </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1509" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
         <v>3164</v>
       </c>
-    </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1510" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1511" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1512" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1513" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1514" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
         <v>4677</v>
       </c>
-    </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1515" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
         <v>4219</v>
       </c>
-    </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1516" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
         <v>3134</v>
       </c>
-    </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1517" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
         <v>4288</v>
       </c>
-    </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1519" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1520" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
         <v>4226</v>
       </c>
-    </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1521" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
         <v>4234</v>
       </c>
-    </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1522" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
         <v>4299</v>
       </c>
-    </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1523" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1524" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1525" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1526" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1526" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1527" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1528" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
         <v>2576</v>
       </c>
     </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
         <v>4040</v>
       </c>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1530" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1531" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
         <v>2662</v>
       </c>
-    </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1533" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1534" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1535" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1536" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
         <v>3237</v>
       </c>
-    </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1537" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1538" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1539" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1540" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
         <v>2784</v>
       </c>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1541" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
         <v>2811</v>
       </c>
-    </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1542" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
         <v>2806</v>
       </c>
     </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
         <v>2808</v>
       </c>
-    </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1544" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1545" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
         <v>3540</v>
       </c>
-    </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1546" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1547" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
         <v>4021</v>
       </c>
-    </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1548" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1549" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1549" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1550" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
         <v>2383</v>
       </c>
-    </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1551" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1552" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1554" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1555" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
         <v>3239</v>
       </c>
-    </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1556" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1557" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
         <v>3884</v>
       </c>
-    </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1558" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
         <v>3888</v>
       </c>
     </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1560" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1561" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
         <v>2690</v>
       </c>
-    </row>
-    <row r="1563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1562" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
         <v>2391</v>
       </c>
-    </row>
-    <row r="1564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1563" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="1565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="1566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1565" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1567" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="1568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1567" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="1569" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="1570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1569" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="1571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1570" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
         <v>3938</v>
       </c>
-    </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1571" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
         <v>3935</v>
       </c>
     </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
         <v>2209</v>
       </c>
-    </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1573" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1574" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
         <v>4505</v>
       </c>
     </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1576" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1577" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1578" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1579" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1580" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
         <v>4442</v>
       </c>
-    </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1581" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
         <v>2787</v>
       </c>
-    </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1582" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1583" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
         <v>2189</v>
       </c>
-    </row>
-    <row r="1585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1584" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="1586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1585" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="1587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1586" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="1588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1587" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
         <v>3189</v>
       </c>
-    </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1588" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1589" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1590" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1590" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1591" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1592" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1593" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1594" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1595" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1596" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
         <v>4410</v>
       </c>
-    </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1597" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1598" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1599" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1599" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1601" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1602" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
         <v>3930</v>
       </c>
-    </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1603" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1604" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
         <v>2260</v>
       </c>
-    </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1605" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
         <v>2822</v>
       </c>
-    </row>
-    <row r="1607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1606" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
         <v>4430</v>
       </c>
-    </row>
-    <row r="1608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1607" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
         <v>3033</v>
       </c>
-    </row>
-    <row r="1609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1608" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="1610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1609" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="1611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1610" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="1612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1611" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="1613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1612" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="1614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1613" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="1615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1614" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="1616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1615" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="1617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1616" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
         <v>3382</v>
       </c>
-    </row>
-    <row r="1618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1617" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
         <v>2427</v>
       </c>
-    </row>
-    <row r="1619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1618" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1619" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="1620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1619" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="1621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="1622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1621" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1625" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="1626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1625" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1626" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="1627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1626" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1627" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="1628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1627" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1628" t="s">
         <v>2184</v>
       </c>
-    </row>
-    <row r="1629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1628" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1629" t="s">
         <v>2584</v>
       </c>
-    </row>
-    <row r="1630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1629" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1630" t="s">
         <v>4496</v>
       </c>
-    </row>
-    <row r="1631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1630" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1631" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="1632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1631" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1632" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1632" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1633" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="1634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1633" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1634" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="1635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1634" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1635" t="s">
         <v>3342</v>
       </c>
-    </row>
-    <row r="1636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1635" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1636" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1636" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1637" t="s">
         <v>3576</v>
       </c>
-    </row>
-    <row r="1638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1637" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1638" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1638" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1639" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
         <v>2700</v>
       </c>
-    </row>
-    <row r="1641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1640" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="1646" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
         <v>3895</v>
       </c>
     </row>
-    <row r="1647" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="1648" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
         <v>11</v>
       </c>

--- a/data/relevant_kaggle_data.xlsx
+++ b/data/relevant_kaggle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAEE2B0-8405-BC4C-AD9F-F574C9C04B7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E328D6-D5F4-4942-9700-E36A04CB003D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{BB7E7DAB-4849-C443-B59D-33953F82165A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6294" uniqueCount="4700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6665" uniqueCount="4700">
   <si>
     <t>Suspected serial arsonist arrested in Calif. http://t.co/PzotPDGAkI</t>
   </si>
@@ -14486,8 +14486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391349C6-C0B5-0840-9E02-FD37DCB5A384}">
   <dimension ref="A1:B4900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1616" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1640" sqref="B1640"/>
+    <sheetView tabSelected="1" topLeftCell="A2066" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2085" sqref="B2085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26890,2278 +26890,3391 @@
       <c r="A1641" t="s">
         <v>2666</v>
       </c>
+      <c r="B1641" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
         <v>1781</v>
       </c>
+      <c r="B1642" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
         <v>2182</v>
       </c>
+      <c r="B1643" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
         <v>586</v>
       </c>
+      <c r="B1644" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
         <v>2836</v>
       </c>
+      <c r="B1645" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
         <v>3895</v>
       </c>
+      <c r="B1646" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
         <v>747</v>
       </c>
+      <c r="B1647" t="s">
+        <v>4695</v>
+      </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1648" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1649" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="1650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1649" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="1652" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="1653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1652" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
         <v>2434</v>
       </c>
-    </row>
-    <row r="1654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1653" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1654" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="1656" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="1657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1656" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1657" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1658" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1659" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1661" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="1662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1661" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
         <v>4187</v>
       </c>
-    </row>
-    <row r="1663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1662" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
         <v>3432</v>
       </c>
-    </row>
-    <row r="1664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1663" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="1665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1664" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="1666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1665" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1666" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row r="1668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1667" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1668" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1669" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1670" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
         <v>4168</v>
       </c>
-    </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1671" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="1673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1672" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="1674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1673" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="1675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1674" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1675" t="s">
         <v>2290</v>
       </c>
-    </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1675" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1676" t="s">
         <v>3858</v>
       </c>
-    </row>
-    <row r="1677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1676" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1677" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1677" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1678" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1678" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1679" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1679" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1680" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1680" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1681" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1681" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1682" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1683" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1684" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1684" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1685" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1685" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1686" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1686" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1687" t="s">
         <v>3936</v>
       </c>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1687" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1688" t="s">
         <v>4673</v>
       </c>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1688" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1689" t="s">
         <v>2868</v>
       </c>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1689" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1690" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1690" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1691" t="s">
         <v>4390</v>
       </c>
     </row>
-    <row r="1692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1692" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="1693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1692" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="1694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1693" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1694" t="s">
         <v>3882</v>
       </c>
-    </row>
-    <row r="1695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1694" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1695" t="s">
         <v>3357</v>
       </c>
-    </row>
-    <row r="1696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1695" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1696" t="s">
         <v>3348</v>
       </c>
-    </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1696" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1697" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1698" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1698" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1699" t="s">
         <v>3718</v>
       </c>
-    </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1699" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1700" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1701" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1701" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1702" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1702" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1703" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1703" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1704" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1704" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1705" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1705" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1706" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1707" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1707" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1708" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1708" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1709" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1710" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1710" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1711" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1711" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1712" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1712" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1714" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="1715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1714" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
         <v>2486</v>
       </c>
     </row>
-    <row r="1716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1716" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1716" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1717" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1717" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
         <v>3429</v>
       </c>
-    </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1718" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
         <v>4186</v>
       </c>
-    </row>
-    <row r="1720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1719" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1720" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="1721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1720" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1721" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="1722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1721" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1722" t="s">
         <v>2257</v>
       </c>
-    </row>
-    <row r="1723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1722" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
         <v>2530</v>
       </c>
-    </row>
-    <row r="1724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1723" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1724" t="s">
         <v>2547</v>
       </c>
     </row>
-    <row r="1725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1725" t="s">
         <v>2538</v>
       </c>
     </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1726" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1727" t="s">
         <v>4126</v>
       </c>
-    </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1727" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1728" t="s">
         <v>4671</v>
       </c>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1728" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1729" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1729" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1730" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1730" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1731" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1732" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1733" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1734" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1735" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1735" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1736" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1736" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1737" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1737" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1738" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1738" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1739" t="s">
         <v>4560</v>
       </c>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1739" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1740" t="s">
         <v>4514</v>
       </c>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1740" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1741" t="s">
         <v>4501</v>
       </c>
     </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1742" t="s">
         <v>2658</v>
       </c>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1742" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1743" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1743" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1744" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1744" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1745" t="s">
         <v>3038</v>
       </c>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1745" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1746" t="s">
         <v>3173</v>
       </c>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1746" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1747" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1747" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1748" t="s">
         <v>2462</v>
       </c>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1748" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1749" t="s">
         <v>4464</v>
       </c>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1749" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1750" t="s">
         <v>4459</v>
       </c>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1750" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1751" t="s">
         <v>4497</v>
       </c>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1751" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1752" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1752" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1753" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1753" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1754" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1754" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1755" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1755" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1756" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1757" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1757" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1758" t="s">
         <v>3320</v>
       </c>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1758" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1759" t="s">
         <v>2242</v>
       </c>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1759" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1760" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1760" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1761" t="s">
         <v>3151</v>
       </c>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1761" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1762" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="1764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1763" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="1765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1764" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
         <v>2311</v>
       </c>
-    </row>
-    <row r="1766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1765" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="1767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1766" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="1768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1768" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="1769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1768" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1769" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="1770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1769" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1770" t="s">
         <v>4008</v>
       </c>
-    </row>
-    <row r="1771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1770" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1771" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1771" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1772" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1772" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1773" t="s">
         <v>3606</v>
       </c>
-    </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1773" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1774" t="s">
         <v>2649</v>
       </c>
     </row>
-    <row r="1775" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
         <v>4388</v>
       </c>
-    </row>
-    <row r="1776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1775" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1776" t="s">
         <v>4456</v>
       </c>
-    </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1776" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1777" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1778" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
         <v>2731</v>
       </c>
-    </row>
-    <row r="1780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1779" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="1781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1780" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1781" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1781" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1782" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1783" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
         <v>4118</v>
       </c>
-    </row>
-    <row r="1785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1784" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1785" t="s">
         <v>4646</v>
       </c>
-    </row>
-    <row r="1786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1785" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="1787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1786" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
         <v>2708</v>
       </c>
-    </row>
-    <row r="1788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1787" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="1789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1788" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
         <v>2736</v>
       </c>
-    </row>
-    <row r="1790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1789" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="1791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1790" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="1792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1791" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1792" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1792" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
         <v>4503</v>
       </c>
-    </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1793" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1794" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1794" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1795" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1795" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1796" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1796" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1797" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1798" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1798" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1799" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1800" t="s">
         <v>3190</v>
       </c>
-    </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1800" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1801" t="s">
         <v>2172</v>
       </c>
-    </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1801" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1802" t="s">
         <v>3474</v>
       </c>
-    </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1802" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
         <v>3477</v>
       </c>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1803" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
         <v>3470</v>
       </c>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1804" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1805" t="s">
         <v>3467</v>
       </c>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1805" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1806" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1806" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1807" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1808" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1809" t="s">
         <v>3336</v>
       </c>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1809" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1810" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1811" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1817" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1821" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1822" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1823" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1825" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1826" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
         <v>2940</v>
       </c>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1831" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1832" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1833" t="s">
         <v>2360</v>
       </c>
     </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1834" t="s">
         <v>4627</v>
       </c>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1834" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1835" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1835" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1836" t="s">
         <v>4319</v>
       </c>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1836" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1837" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1837" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1838" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1838" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1839" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1839" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1840" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1841" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1842" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1842" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1843" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1843" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1844" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1844" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1845" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1846" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1846" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1847" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1848" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1849" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1849" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1850" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1850" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1851" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1851" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1852" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1852" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1853" t="s">
         <v>2234</v>
       </c>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1853" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1854" t="s">
         <v>2974</v>
       </c>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1854" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1855" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1855" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1856" t="s">
         <v>3922</v>
       </c>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1856" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1857" t="s">
         <v>3187</v>
       </c>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1857" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1858" t="s">
         <v>4445</v>
       </c>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1858" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1859" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1859" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1860" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1860" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1861" t="s">
         <v>3981</v>
       </c>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1861" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1862" t="s">
         <v>3513</v>
       </c>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1862" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1863" t="s">
         <v>2423</v>
       </c>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1863" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1864" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1864" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1865" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1865" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1866" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1866" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1867" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1867" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1868" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1868" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1869" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1870" t="s">
         <v>3634</v>
       </c>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1870" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1871" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1871" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1872" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1873" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1873" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1874" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1874" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1875" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1875" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1876" t="s">
         <v>4510</v>
       </c>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1876" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1877" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1878" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1878" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1879" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1879" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1880" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1882" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1882" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1883" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1884" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
         <v>2717</v>
       </c>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1885" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1886" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1887" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1888" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1888" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1889" t="s">
         <v>4598</v>
       </c>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1889" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1890" t="s">
         <v>4238</v>
       </c>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1890" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
         <v>3684</v>
       </c>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1891" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1892" t="s">
         <v>4487</v>
       </c>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1892" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
         <v>4487</v>
       </c>
     </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1894" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1894" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1895" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1895" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1896" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1896" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1897" t="s">
         <v>2433</v>
       </c>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1897" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1898" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
         <v>2440</v>
       </c>
-    </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1900" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1901" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1901" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
         <v>3954</v>
       </c>
-    </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1902" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
         <v>4007</v>
       </c>
-    </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1903" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1904" t="s">
         <v>3991</v>
       </c>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1904" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1905" t="s">
         <v>3982</v>
       </c>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1905" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1906" t="s">
         <v>3975</v>
       </c>
     </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1907" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1907" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1908" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1908" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1909" t="s">
         <v>4216</v>
       </c>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1909" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1910" t="s">
         <v>2560</v>
       </c>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1910" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1911" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1911" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1912" t="s">
         <v>3976</v>
       </c>
-    </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1912" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1913" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1913" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1914" t="s">
         <v>2108</v>
       </c>
     </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1915" t="s">
         <v>2267</v>
       </c>
-    </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1915" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1916" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1916" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1917" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1917" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1918" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1918" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1919" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1919" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1920" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="1921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1920" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1921" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1921" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="1923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1922" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
         <v>3586</v>
       </c>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1923" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1924" t="s">
         <v>4542</v>
       </c>
-    </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1924" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1925" t="s">
         <v>3635</v>
       </c>
-    </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1925" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1926" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1926" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1927" t="s">
         <v>2745</v>
       </c>
-    </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1927" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1928" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1928" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1929" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1929" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1930" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1930" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1931" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1931" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1932" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="1933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1932" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
         <v>3924</v>
       </c>
-    </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1933" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1934" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1935" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="1936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1935" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1936" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1937" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="1938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1937" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1938" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="1939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1938" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1939" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="1940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1939" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1940" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="1941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1940" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1941" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="1942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1941" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1942" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1942" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1943" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1943" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1944" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="1945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1944" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1945" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="1946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1945" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1946" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="1947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1946" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1947" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="1948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1947" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1948" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1949" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1949" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="1950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1949" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1950" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="1951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1950" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1951" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="1952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1951" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1952" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="1953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1952" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1953" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1954" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1954" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1955" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="1956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1955" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1956" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="1957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1956" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1957" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="1958" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1958" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="1959" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1959" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="1960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1959" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1960" t="s">
         <v>3984</v>
       </c>
-    </row>
-    <row r="1961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1960" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1961" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="1962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1961" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1962" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="1963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1962" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1963" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="1964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1963" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1964" t="s">
         <v>3521</v>
       </c>
-    </row>
-    <row r="1965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1964" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1965" t="s">
         <v>2955</v>
       </c>
-    </row>
-    <row r="1966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1965" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1966" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="1967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1966" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1967" t="s">
         <v>3978</v>
       </c>
-    </row>
-    <row r="1968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1967" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1968" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1968" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1969" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1969" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1970" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1971" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1971" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1972" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="1973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1972" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1973" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1973" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1974" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1974" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1975" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1975" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1976" t="s">
         <v>2376</v>
       </c>
-    </row>
-    <row r="1977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1976" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1977" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1978" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="1979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1978" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1979" t="s">
         <v>3612</v>
       </c>
     </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1980" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1980" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1981" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1981" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1982" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1982" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1983" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="1984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1983" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1984" t="s">
         <v>3234</v>
       </c>
-    </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1984" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1985" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1985" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1986" t="s">
         <v>4485</v>
       </c>
-    </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1986" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1987" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="1988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1987" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1988" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="1989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1988" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1989" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="1990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1989" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1990" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="1991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1990" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1991" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="1992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1991" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1992" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="1993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1992" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1993" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="1994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1993" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1994" t="s">
         <v>3697</v>
       </c>
-    </row>
-    <row r="1995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1994" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1995" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1995" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1996" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1996" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1997" t="s">
         <v>4504</v>
       </c>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1997" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1998" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1998" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1999" t="s">
         <v>4592</v>
       </c>
-    </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1999" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2000" t="s">
         <v>4330</v>
       </c>
-    </row>
-    <row r="2001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2000" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2001" t="s">
         <v>4341</v>
       </c>
     </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2002" t="s">
         <v>4331</v>
       </c>
     </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2003" t="s">
         <v>4297</v>
       </c>
     </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2004" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="2005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2004" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2005" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="2006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2005" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2006" t="s">
         <v>4600</v>
       </c>
-    </row>
-    <row r="2007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2006" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2007" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2007" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2008" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2008" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2009" t="s">
         <v>4495</v>
       </c>
-    </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2009" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2010" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="2011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2010" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2011" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2012" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2012" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2013" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2014" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2014" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2015" t="s">
         <v>2373</v>
       </c>
-    </row>
-    <row r="2016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2015" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2016" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="2017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2016" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2017" t="s">
         <v>2728</v>
       </c>
-    </row>
-    <row r="2018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2017" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2018" t="s">
         <v>3177</v>
       </c>
-    </row>
-    <row r="2019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2018" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2019" t="s">
         <v>3059</v>
       </c>
-    </row>
-    <row r="2020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2019" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2020" t="s">
         <v>4145</v>
       </c>
-    </row>
-    <row r="2021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2020" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2021" t="s">
         <v>3108</v>
       </c>
     </row>
-    <row r="2022" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2022" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="2023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2022" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2023" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="2024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2023" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2024" t="s">
         <v>4292</v>
       </c>
-    </row>
-    <row r="2025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2024" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2025" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="2026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2025" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2026" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="2027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2026" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2027" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="2028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2027" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2028" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="2029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2028" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2029" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="2030" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2030" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2030" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2031" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="2032" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2032" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="2033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2032" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2033" t="s">
         <v>2183</v>
       </c>
-    </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2033" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2034" t="s">
         <v>2475</v>
       </c>
-    </row>
-    <row r="2035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2034" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2035" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="2036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2035" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2036" t="s">
         <v>4220</v>
       </c>
-    </row>
-    <row r="2037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2036" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2037" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="2038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2037" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2038" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="2039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2038" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2039" t="s">
         <v>3200</v>
       </c>
-    </row>
-    <row r="2040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2039" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2040" t="s">
         <v>3221</v>
       </c>
-    </row>
-    <row r="2041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2040" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2041" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="2042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2041" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2042" t="s">
         <v>3209</v>
       </c>
-    </row>
-    <row r="2043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2042" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2043" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="2044" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2044" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="2045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2044" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2045" t="s">
         <v>2504</v>
       </c>
-    </row>
-    <row r="2046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2045" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2046" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="2047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2046" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2047" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="2048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2047" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2048" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="2049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2048" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2049" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="2050" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2050" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="2051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2050" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2051" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="2052" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2052" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="2053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2052" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2053" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="2054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2053" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2054" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="2055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2054" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2055" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2055" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2056" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="2057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2056" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2057" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="2058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2057" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2058" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="2059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2058" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2059" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="2060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2059" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2060" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="2061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2060" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2061" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="2062" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2062" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="2063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2062" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2063" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="2064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2063" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2064" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="2065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2064" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2065" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="2066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2065" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2066" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="2067" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2067" t="s">
         <v>2654</v>
       </c>
-    </row>
-    <row r="2068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2067" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2068" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="2069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2068" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2069" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="2070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2069" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2070" t="s">
         <v>4113</v>
       </c>
-    </row>
-    <row r="2071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2070" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2071" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="2072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2071" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2072" t="s">
         <v>3867</v>
       </c>
-    </row>
-    <row r="2073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2072" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2073" t="s">
         <v>3840</v>
       </c>
-    </row>
-    <row r="2074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2073" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2074" t="s">
         <v>3430</v>
       </c>
-    </row>
-    <row r="2075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2074" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2075" t="s">
         <v>4356</v>
       </c>
-    </row>
-    <row r="2076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2075" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2076" t="s">
         <v>3894</v>
       </c>
-    </row>
-    <row r="2077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2076" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2077" t="s">
         <v>4188</v>
       </c>
-    </row>
-    <row r="2078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2077" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2078" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="2079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2078" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2079" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="2080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2079" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2080" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="2081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2080" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2081" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="2082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2081" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2082" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="2083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2082" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2083" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="2084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2083" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2084" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="2085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2084" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2085" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="2086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2085" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2086" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="2087" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2087" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="2088" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2088" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="2089" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2089" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="2090" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2090" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="2091" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2091" t="s">
         <v>3325</v>
       </c>
     </row>
-    <row r="2092" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2092" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="2093" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2093" t="s">
         <v>4394</v>
       </c>
     </row>
-    <row r="2094" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2094" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2095" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2095" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="2096" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2096" t="s">
         <v>864</v>
       </c>

--- a/data/relevant_kaggle_data.xlsx
+++ b/data/relevant_kaggle_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/NLP/NLP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486D8896-E96C-4A4D-B8A8-DB6120E63FC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B8B76-7F00-194B-9F52-F96931FB0177}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{BB7E7DAB-4849-C443-B59D-33953F82165A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$5003</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$4900</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7715" uniqueCount="4701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="4701">
   <si>
     <t>Suspected serial arsonist arrested in Calif. http://t.co/PzotPDGAkI</t>
   </si>
@@ -14489,8 +14489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391349C6-C0B5-0840-9E02-FD37DCB5A384}">
   <dimension ref="A1:B4900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3500" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3554" sqref="B3554"/>
+    <sheetView tabSelected="1" topLeftCell="A3725" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A3745" sqref="A3745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43672,82 +43672,85 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="4145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4145" t="s">
         <v>4373</v>
       </c>
     </row>
-    <row r="4146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4146" t="s">
         <v>2044</v>
       </c>
     </row>
-    <row r="4147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4147" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="4148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4148" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="4149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4149" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="4150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4150" t="s">
         <v>4396</v>
       </c>
     </row>
-    <row r="4151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4151" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="4152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4152" t="s">
         <v>3603</v>
       </c>
-    </row>
-    <row r="4153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4152" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4153" t="s">
         <v>3614</v>
       </c>
     </row>
-    <row r="4154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4154" t="s">
         <v>3603</v>
       </c>
     </row>
-    <row r="4155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4155" t="s">
         <v>3613</v>
       </c>
     </row>
-    <row r="4156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4156" t="s">
         <v>3652</v>
       </c>
     </row>
-    <row r="4157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4157" t="s">
         <v>3254</v>
       </c>
     </row>
-    <row r="4158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4158" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4159" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="4160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4160" t="s">
         <v>2123</v>
       </c>
@@ -44072,82 +44075,85 @@
         <v>847</v>
       </c>
     </row>
-    <row r="4225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4225" t="s">
         <v>3451</v>
       </c>
     </row>
-    <row r="4226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4226" t="s">
         <v>4528</v>
       </c>
     </row>
-    <row r="4227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4227" t="s">
         <v>3300</v>
       </c>
-    </row>
-    <row r="4228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4227" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4228" t="s">
         <v>3290</v>
       </c>
     </row>
-    <row r="4229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4229" t="s">
         <v>3278</v>
       </c>
     </row>
-    <row r="4230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4230" t="s">
         <v>3298</v>
       </c>
     </row>
-    <row r="4231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4231" t="s">
         <v>3265</v>
       </c>
     </row>
-    <row r="4232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4232" t="s">
         <v>3282</v>
       </c>
     </row>
-    <row r="4233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4233" t="s">
         <v>3305</v>
       </c>
     </row>
-    <row r="4234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4234" t="s">
         <v>3294</v>
       </c>
     </row>
-    <row r="4235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4235" t="s">
         <v>3276</v>
       </c>
     </row>
-    <row r="4236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4236" t="s">
         <v>3277</v>
       </c>
     </row>
-    <row r="4237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4237" t="s">
         <v>3299</v>
       </c>
     </row>
-    <row r="4238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4238" t="s">
         <v>3303</v>
       </c>
     </row>
-    <row r="4239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4239" t="s">
         <v>3273</v>
       </c>
     </row>
-    <row r="4240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4240" t="s">
         <v>3297</v>
       </c>
@@ -47453,10 +47459,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B5003" xr:uid="{8D7EC460-5FFF-BB45-922D-160AACC5CDDD}"/>
+  <autoFilter ref="B1:B4900" xr:uid="{9B17C176-1AA7-284F-95D5-E94BAA1A49F8}"/>
   <sortState ref="A1:A5002">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>